--- a/extended_results.xlsx
+++ b/extended_results.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yumouwei/My Macintosh/Machine Learning/Image Segmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52627848-D022-DF4E-B99B-0B4A811FE0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474F6582-C68E-1D42-9EDA-D718B124CCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" activeTab="1" xr2:uid="{E238AC0F-E5B3-FB48-ABB5-C30B931B05F8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E238AC0F-E5B3-FB48-ABB5-C30B931B05F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="class composition" sheetId="1" r:id="rId1"/>
+    <sheet name="class percentage" sheetId="1" r:id="rId1"/>
     <sheet name="pixel accuracy" sheetId="2" r:id="rId2"/>
     <sheet name="IOU" sheetId="3" r:id="rId3"/>
     <sheet name="model hyperparams" sheetId="4" r:id="rId4"/>
+    <sheet name="figures" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -317,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -356,9 +357,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,6 +374,3877 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pixel Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs IOU by class</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vanilla U-Net</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13073825320788324"/>
+                  <c:y val="-3.6954785835052718E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FFC3734C-BF74-C749-BD23-8B4B6FA3AC37}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.0649837045715683E-2"/>
+                  <c:y val="-9.394394598683016E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A225FCA4-39A3-564C-A7EF-749BE1EF8A2B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12426309980216481"/>
+                  <c:y val="-2.0053920421674726E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{22ADE54E-E2EE-3249-B3A6-FD10AC451D02}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0109003107573867E-2"/>
+                  <c:y val="-5.9179090420089869E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2283D4C1-5099-8B49-B289-76B47B4FBFC7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.16984032267273169"/>
+                  <c:y val="-8.177553751309545E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0C5B5DDF-D3C9-344B-B74E-B7C5E080C72A}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.18954302738014711"/>
+                  <c:y val="-5.2520192371998446E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2123CB05-6C51-DE4A-8E57-CC4CD1C8151E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.6625752216718998E-2"/>
+                  <c:y val="-6.230604995230004E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{484A3130-48B6-F344-B53C-3887A34EFDA7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-8.1822393035896751E-2"/>
+                  <c:y val="-6.6852278012299191E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1B38BE1B-D8D2-9046-9175-C50B4572D127}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.0194063235466928E-2"/>
+                  <c:y val="5.9987762605273456E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{30C7FE34-3858-EB4C-9007-956538CE280F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5917790761542938E-2"/>
+                  <c:y val="4.9829536885703768E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3F73CD00-8696-7C46-9134-087F57923EAB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4100975827854736E-2"/>
+                  <c:y val="6.4245364171721345E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A9B31F79-F675-2B47-BB5D-B8066618D107}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-1712-2B4F-AC08-0CA58DB422D3}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pixel accuracy'!$C$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IOU!$C$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>IOU!$C$1:$M$1</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>Sky</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Building</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pole</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Road</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pavement</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Tree</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SignSymbol</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Fence</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Car</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pedestrian</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Bicyclist</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-1712-2B4F-AC08-0CA58DB422D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>w.ResNet50V2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-1712-2B4F-AC08-0CA58DB422D3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pixel accuracy'!$C$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IOU!$C$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-1712-2B4F-AC08-0CA58DB422D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>w.MobileNetV2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pixel accuracy'!$C$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>IOU!$C$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-1712-2B4F-AC08-0CA58DB422D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1495821535"/>
+        <c:axId val="338926415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1495821535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Class Pixel Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338926415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338926415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Class</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> IOU</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1495821535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pixel Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Percentage in Test Set Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vanilla U-Net</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.6405591960979031E-2"/>
+                  <c:y val="-6.0898237008026414E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{47D7DFB6-F181-E145-8D16-45FF0EDDF99F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15304283014698841"/>
+                  <c:y val="-5.0748530840022073E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{698E1A8A-E871-C147-A383-C48891D824C9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13504341717757018"/>
+                  <c:y val="-4.0598824672017642E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2A9091B8-BCC3-8940-856E-EFDA2E7FD6CA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1001543428720307"/>
+                  <c:y val="-6.3435663550027582E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7FF77099-50EF-2142-9A95-2C627E076AAA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.15523133292219207"/>
+                  <c:y val="3.5523971588015436E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0FB84795-6B46-1E49-9D88-023192118833}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12386048459704307"/>
+                  <c:y val="-7.1047943176030956E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D5168BC4-DC83-2143-B32F-B74197B363FF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.5212073042434439E-2"/>
+                  <c:y val="-0.17761985794007717"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{85A9738D-88D5-0848-85C1-D0FE2F5ED491}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11609090399411651"/>
+                  <c:y val="-0.1040344882220452"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{70B8593C-EDE0-8544-A6BF-30C72D18B7CF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6816282513414309E-2"/>
+                  <c:y val="4.8211104298020946E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FC3A965F-BB59-4846-AB6B-0C1CC2648941}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1022170298231323"/>
+                  <c:y val="-8.8809928970038685E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0AC524C9-06A9-8C4C-A32A-BEDB8F490C23}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11271943565913974"/>
+                  <c:y val="-0.19791927027608608"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{270A7F28-0C31-3846-9E2A-AEA8BA01BB81}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-ADF6-414D-B378-21698F9D6829}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="l"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>, </c:separator>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pixel accuracy'!$C$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'class percentage'!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>IOU!$C$1:$M$1</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>Sky</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Building</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Pole</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Road</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Pavement</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Tree</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SignSymbol</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Fence</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Car</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Pedestrian</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Bicyclist</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-ADF6-414D-B378-21698F9D6829}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>w.ResNet50V2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="25400" cap="rnd">
+                <a:noFill/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-ADF6-414D-B378-21698F9D6829}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pixel accuracy'!$C$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>95.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'class percentage'!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-ADF6-414D-B378-21698F9D6829}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>w.MobileNetV2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pixel accuracy'!$C$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>94.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>89.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'class percentage'!$B$5:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.17299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-ADF6-414D-B378-21698F9D6829}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1495821535"/>
+        <c:axId val="338926415"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1495821535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Class Pixel Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338926415"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338926415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Percentage of pixels in</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> test set data </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>belonging to a class </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200" baseline="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1495821535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>168909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666920</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA3F203F-FD85-304A-826A-72FA77F5FF7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>236219</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>522139</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90171</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A71F438-D5EC-454A-87A3-9BDCB85C4F75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -675,8 +4546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C3541C-D5B4-664C-A61C-C794B949FED8}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E9D80-91A4-1D44-9C4A-3944AABE796B}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1606,8 +5477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36CADFE7-5A6A-2141-9868-A65FD2F8C663}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2180,7 +6051,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89AC3FE0-E110-4C42-A3CB-224F0821AB52}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -2193,7 +6064,7 @@
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>31</v>
       </c>
@@ -2222,70 +6093,66 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2">
         <v>64</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" s="28" t="b">
+      <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <v>31827275</v>
       </c>
-      <c r="G2" s="29">
+      <c r="G2" s="28">
         <v>31814987</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="29">
         <v>80</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3">
         <v>64</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="28" t="b">
+      <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <v>72364235</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>48791499</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3">
         <v>65</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
       <c r="B4">
@@ -2300,167 +6167,39 @@
       <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <v>42087179</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="28">
         <v>39821259</v>
       </c>
       <c r="H4">
         <v>35</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="29"/>
+      <c r="H12" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1725CE57-D5AE-9B4E-A2D4-6289D7B3A104}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>